--- a/Projects/CameraSystem/Manufacturing/BOM_CameraSystem.xlsx
+++ b/Projects/CameraSystem/Manufacturing/BOM_CameraSystem.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$K$44</definedName>
     <definedName name="BOM_CameraSystem_raw." localSheetId="0">Tabelle1!$A$1:$L$44</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -634,12 +635,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -654,12 +661,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -973,7 +987,7 @@
   <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1032,119 +1046,123 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="4">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="J4" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>19</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="J5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="4">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1174,32 +1192,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1261,32 +1280,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1319,29 +1339,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1599,90 +1620,93 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J24" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="J24" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="4">
         <v>4</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="4">
         <v>560</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J25" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="J25" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="4">
         <v>12</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1715,119 +1739,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="1">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="J28" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="4">
         <v>2</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J29" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="J29" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="4">
         <v>11</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J30" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="J30" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="4">
         <v>2</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1989,29 +2017,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="1">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2087,65 +2116,68 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J43" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="J43" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B44" s="1">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K44"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
